--- a/Documentation/Planification JournalDeTravail/Journal de bord.xlsx
+++ b/Documentation/Planification JournalDeTravail/Journal de bord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Evénement</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Entretient avec Mme Andolfatto pour voir l'avancement de mon projet</t>
+  </si>
+  <si>
+    <t>Entretient de milieu de projet avec M. Tieche</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A4:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +449,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="5">
+        <v>43153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
